--- a/REGULAR/CCT/RODRIGUEZ, IGNACIO.xlsx
+++ b/REGULAR/CCT/RODRIGUEZ, IGNACIO.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="209">
   <si>
     <t>PERIOD</t>
   </si>
@@ -260,9 +260,6 @@
     <t>VL(2-0-0)</t>
   </si>
   <si>
-    <t>3/16,17/2023</t>
-  </si>
-  <si>
     <t>1996</t>
   </si>
   <si>
@@ -618,6 +615,51 @@
   </si>
   <si>
     <t>9/5,6/2022</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>11/3,6-10,13-17,20-24,28-30/2023</t>
+  </si>
+  <si>
+    <t>A(19-0-0)</t>
+  </si>
+  <si>
+    <t>A(21-0-0)</t>
+  </si>
+  <si>
+    <t>10/2-6,9-13,16-20,23-27,31/2023</t>
+  </si>
+  <si>
+    <t>9/1,4-8,11-15,18-22,25-29/2023</t>
+  </si>
+  <si>
+    <t>A(6-0-0)</t>
+  </si>
+  <si>
+    <t>6/19,20,22,27,29,30/2023</t>
+  </si>
+  <si>
+    <t>3/16,17/2023 (9,10)</t>
+  </si>
+  <si>
+    <t>3/13,14/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-13)</t>
+  </si>
+  <si>
+    <t>A(4-0-0)</t>
+  </si>
+  <si>
+    <t>2/9,10,15,28/2023</t>
+  </si>
+  <si>
+    <t>UT(0-1-54)</t>
+  </si>
+  <si>
+    <t>1/3,30,31/2023</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1380,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K485" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K490" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1667,12 +1709,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K485"/>
+  <dimension ref="A2:K490"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2160" topLeftCell="A412" activePane="bottomLeft"/>
-      <selection activeCell="C8" sqref="C8"/>
-      <selection pane="bottomLeft" activeCell="K425" sqref="K425"/>
+      <pane ySplit="4425" topLeftCell="A425" activePane="bottomLeft"/>
+      <selection activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="K432" sqref="K432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1695,7 +1737,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C2" s="48"/>
       <c r="D2" s="21" t="s">
@@ -1831,7 +1873,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>213.36199999999999</v>
+        <v>143.34800000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1841,14 +1883,14 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>233.95799999999997</v>
+        <v>240.20799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="51"/>
       <c r="C10" s="13"/>
@@ -2120,7 +2162,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" s="51"/>
       <c r="C23" s="13"/>
@@ -2394,7 +2436,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -2674,7 +2716,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -2780,7 +2822,7 @@
         <v>36281</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C54" s="13">
         <v>1.25</v>
@@ -2798,7 +2840,7 @@
       <c r="I54" s="13"/>
       <c r="J54" s="11"/>
       <c r="K54" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -2912,7 +2954,7 @@
         <v>36465</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C60" s="13">
         <v>1.25</v>
@@ -2928,7 +2970,7 @@
       <c r="I60" s="13"/>
       <c r="J60" s="11"/>
       <c r="K60" s="52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -2937,7 +2979,7 @@
         <v>36495</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C61" s="13">
         <v>1.25</v>
@@ -2958,7 +3000,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -3232,7 +3274,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -3506,7 +3548,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3780,7 +3822,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3802,7 +3844,7 @@
         <v>37622</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C102" s="13">
         <v>1.25</v>
@@ -3820,7 +3862,7 @@
       <c r="I102" s="13"/>
       <c r="J102" s="11"/>
       <c r="K102" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -3850,7 +3892,7 @@
         <v>37681</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C104" s="13">
         <v>1.25</v>
@@ -3868,7 +3910,7 @@
       <c r="I104" s="13"/>
       <c r="J104" s="11"/>
       <c r="K104" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -4062,7 +4104,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -4126,7 +4168,7 @@
         <v>38047</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C117" s="13">
         <v>1.25</v>
@@ -4144,7 +4186,7 @@
       <c r="I117" s="13"/>
       <c r="J117" s="11"/>
       <c r="K117" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -4174,7 +4216,7 @@
         <v>38108</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C119" s="13">
         <v>1.25</v>
@@ -4190,7 +4232,7 @@
       <c r="I119" s="13"/>
       <c r="J119" s="11"/>
       <c r="K119" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -4283,7 +4325,7 @@
         <v>38261</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C124" s="13">
         <v>1.25</v>
@@ -4299,7 +4341,7 @@
       <c r="I124" s="13"/>
       <c r="J124" s="11"/>
       <c r="K124" s="52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -4329,7 +4371,7 @@
         <v>38322</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C126" s="13">
         <v>1.25</v>
@@ -4350,7 +4392,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -4432,7 +4474,7 @@
       <c r="I130" s="13"/>
       <c r="J130" s="11"/>
       <c r="K130" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -4626,7 +4668,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -4708,7 +4750,7 @@
       <c r="I143" s="13"/>
       <c r="J143" s="11"/>
       <c r="K143" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -4819,7 +4861,7 @@
       <c r="I148" s="13"/>
       <c r="J148" s="11"/>
       <c r="K148" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -4891,7 +4933,7 @@
         <v>39052</v>
       </c>
       <c r="B152" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C152" s="13">
         <v>1.25</v>
@@ -4912,7 +4954,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -4934,7 +4976,7 @@
         <v>39083</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C154" s="13">
         <v>1.25</v>
@@ -4950,7 +4992,7 @@
       <c r="I154" s="13"/>
       <c r="J154" s="11"/>
       <c r="K154" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
@@ -4973,7 +5015,7 @@
       <c r="I155" s="13"/>
       <c r="J155" s="11"/>
       <c r="K155" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
@@ -5087,7 +5129,7 @@
         <v>39295</v>
       </c>
       <c r="B161" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C161" s="13">
         <v>1.25</v>
@@ -5103,7 +5145,7 @@
       <c r="I161" s="13"/>
       <c r="J161" s="11"/>
       <c r="K161" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
@@ -5196,7 +5238,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -5470,7 +5512,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -5744,7 +5786,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -5871,7 +5913,7 @@
         <v>40330</v>
       </c>
       <c r="B198" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C198" s="13">
         <v>1.25</v>
@@ -5887,7 +5929,7 @@
       <c r="I198" s="13"/>
       <c r="J198" s="11"/>
       <c r="K198" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
@@ -5896,7 +5938,7 @@
         <v>40360</v>
       </c>
       <c r="B199" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C199" s="13">
         <v>1.25</v>
@@ -5912,13 +5954,13 @@
       <c r="I199" s="13"/>
       <c r="J199" s="11"/>
       <c r="K199" s="54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C200" s="13"/>
       <c r="D200" s="39"/>
@@ -5929,13 +5971,13 @@
       <c r="I200" s="13"/>
       <c r="J200" s="11"/>
       <c r="K200" s="52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23"/>
       <c r="B201" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C201" s="13"/>
       <c r="D201" s="39"/>
@@ -5946,7 +5988,7 @@
       <c r="I201" s="13"/>
       <c r="J201" s="11"/>
       <c r="K201" s="52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
@@ -6060,7 +6102,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
@@ -6124,7 +6166,7 @@
         <v>40603</v>
       </c>
       <c r="B210" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C210" s="13">
         <v>1.25</v>
@@ -6142,7 +6184,7 @@
       <c r="I210" s="13"/>
       <c r="J210" s="11"/>
       <c r="K210" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
@@ -6211,7 +6253,7 @@
       <c r="I213" s="13"/>
       <c r="J213" s="11"/>
       <c r="K213" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
@@ -6304,7 +6346,7 @@
         <v>40848</v>
       </c>
       <c r="B218" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C218" s="13">
         <v>1.25</v>
@@ -6329,7 +6371,7 @@
         <v>40878</v>
       </c>
       <c r="B219" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C219" s="13">
         <v>1.25</v>
@@ -6350,7 +6392,7 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B220" s="20"/>
       <c r="C220" s="13"/>
@@ -6390,13 +6432,13 @@
       <c r="I221" s="13"/>
       <c r="J221" s="11"/>
       <c r="K221" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C222" s="13"/>
       <c r="D222" s="39">
@@ -6409,7 +6451,7 @@
       <c r="I222" s="13"/>
       <c r="J222" s="11"/>
       <c r="K222" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
@@ -6439,7 +6481,7 @@
         <v>40969</v>
       </c>
       <c r="B224" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C224" s="13">
         <v>1.25</v>
@@ -6457,7 +6499,7 @@
       <c r="I224" s="13"/>
       <c r="J224" s="11"/>
       <c r="K224" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
@@ -6484,7 +6526,7 @@
       <c r="I225" s="13"/>
       <c r="J225" s="11"/>
       <c r="K225" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
@@ -6658,12 +6700,12 @@
       <c r="I233" s="13"/>
       <c r="J233" s="11"/>
       <c r="K233" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B234" s="20"/>
       <c r="C234" s="13"/>
@@ -6703,7 +6745,7 @@
       <c r="I235" s="13"/>
       <c r="J235" s="11"/>
       <c r="K235" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
@@ -6751,7 +6793,7 @@
       <c r="I237" s="13"/>
       <c r="J237" s="11"/>
       <c r="K237" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
@@ -6862,7 +6904,7 @@
       <c r="I242" s="13"/>
       <c r="J242" s="11"/>
       <c r="K242" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
@@ -6934,7 +6976,7 @@
         <v>41609</v>
       </c>
       <c r="B246" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C246" s="13">
         <v>1.25</v>
@@ -6952,13 +6994,13 @@
       <c r="I246" s="13"/>
       <c r="J246" s="11"/>
       <c r="K246" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23"/>
       <c r="B247" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C247" s="13"/>
       <c r="D247" s="39">
@@ -6974,12 +7016,12 @@
       <c r="I247" s="13"/>
       <c r="J247" s="11"/>
       <c r="K247" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B248" s="20"/>
       <c r="C248" s="13"/>
@@ -7086,7 +7128,7 @@
       <c r="I252" s="13"/>
       <c r="J252" s="11"/>
       <c r="K252" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
@@ -7183,7 +7225,7 @@
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C257" s="13"/>
       <c r="D257" s="39"/>
@@ -7196,7 +7238,7 @@
       <c r="I257" s="13"/>
       <c r="J257" s="11"/>
       <c r="K257" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
@@ -7280,7 +7322,7 @@
       <c r="I261" s="13"/>
       <c r="J261" s="11"/>
       <c r="K261" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
@@ -7307,7 +7349,7 @@
       <c r="I262" s="13"/>
       <c r="J262" s="11"/>
       <c r="K262" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
@@ -7364,7 +7406,7 @@
       <c r="I265" s="13"/>
       <c r="J265" s="11"/>
       <c r="K265" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
@@ -7383,7 +7425,7 @@
       <c r="I266" s="13"/>
       <c r="J266" s="11"/>
       <c r="K266" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
@@ -7502,7 +7544,7 @@
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C272" s="13">
         <v>1.25</v>
@@ -7523,7 +7565,7 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B273" s="20"/>
       <c r="C273" s="13"/>
@@ -7563,13 +7605,13 @@
       <c r="I274" s="13"/>
       <c r="J274" s="11"/>
       <c r="K274" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C275" s="13"/>
       <c r="D275" s="39"/>
@@ -7580,7 +7622,7 @@
       <c r="I275" s="13"/>
       <c r="J275" s="11"/>
       <c r="K275" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
@@ -7628,13 +7670,13 @@
       <c r="I277" s="13"/>
       <c r="J277" s="11"/>
       <c r="K277" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C278" s="13"/>
       <c r="D278" s="39">
@@ -7647,7 +7689,7 @@
       <c r="I278" s="13"/>
       <c r="J278" s="11"/>
       <c r="K278" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
@@ -7666,7 +7708,7 @@
       <c r="I279" s="13"/>
       <c r="J279" s="11"/>
       <c r="K279" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
@@ -7693,7 +7735,7 @@
       <c r="I280" s="13"/>
       <c r="J280" s="11"/>
       <c r="K280" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
@@ -7842,7 +7884,7 @@
       <c r="I287" s="13"/>
       <c r="J287" s="11"/>
       <c r="K287" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
@@ -7926,7 +7968,7 @@
       <c r="I291" s="13"/>
       <c r="J291" s="11"/>
       <c r="K291" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
@@ -8000,7 +8042,7 @@
       <c r="I295" s="13"/>
       <c r="J295" s="11"/>
       <c r="K295" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
@@ -8046,7 +8088,7 @@
       <c r="I297" s="13"/>
       <c r="J297" s="11"/>
       <c r="K297" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
@@ -8204,7 +8246,7 @@
       <c r="I305" s="13"/>
       <c r="J305" s="11"/>
       <c r="K305" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
@@ -8250,7 +8292,7 @@
       <c r="I307" s="13"/>
       <c r="J307" s="11"/>
       <c r="K307" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
@@ -8307,7 +8349,7 @@
       <c r="I310" s="13"/>
       <c r="J310" s="11"/>
       <c r="K310" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
@@ -8391,7 +8433,7 @@
       <c r="I314" s="13"/>
       <c r="J314" s="11"/>
       <c r="K314" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
@@ -8481,7 +8523,7 @@
       <c r="I318" s="13"/>
       <c r="J318" s="11"/>
       <c r="K318" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
@@ -8506,7 +8548,7 @@
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B320" s="20"/>
       <c r="C320" s="13"/>
@@ -8613,7 +8655,7 @@
       <c r="I324" s="13"/>
       <c r="J324" s="11"/>
       <c r="K324" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
@@ -8632,7 +8674,7 @@
       <c r="I325" s="13"/>
       <c r="J325" s="11"/>
       <c r="K325" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
@@ -8728,7 +8770,7 @@
       <c r="I329" s="13"/>
       <c r="J329" s="11"/>
       <c r="K329" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
@@ -8821,7 +8863,7 @@
         <v>42705</v>
       </c>
       <c r="B334" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C334" s="13">
         <v>1.25</v>
@@ -8842,7 +8884,7 @@
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B335" s="20"/>
       <c r="C335" s="13"/>
@@ -8903,7 +8945,7 @@
       <c r="I337" s="13"/>
       <c r="J337" s="11"/>
       <c r="K337" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
@@ -8930,13 +8972,13 @@
       <c r="I338" s="13"/>
       <c r="J338" s="11"/>
       <c r="K338" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23"/>
       <c r="B339" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C339" s="13"/>
       <c r="D339" s="39"/>
@@ -8977,7 +9019,7 @@
         <v>42856</v>
       </c>
       <c r="B341" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C341" s="13">
         <v>1.25</v>
@@ -8995,7 +9037,7 @@
       <c r="I341" s="13"/>
       <c r="J341" s="11"/>
       <c r="K341" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
@@ -9081,13 +9123,13 @@
       <c r="I345" s="13"/>
       <c r="J345" s="11"/>
       <c r="K345" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23"/>
       <c r="B346" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C346" s="13"/>
       <c r="D346" s="39"/>
@@ -9098,7 +9140,7 @@
       <c r="I346" s="13"/>
       <c r="J346" s="11"/>
       <c r="K346" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
@@ -9117,7 +9159,7 @@
       <c r="I347" s="13"/>
       <c r="J347" s="11"/>
       <c r="K347" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
@@ -9184,7 +9226,7 @@
       <c r="I350" s="13"/>
       <c r="J350" s="11"/>
       <c r="K350" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
@@ -9203,7 +9245,7 @@
       <c r="I351" s="13"/>
       <c r="J351" s="11"/>
       <c r="K351" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
@@ -9270,7 +9312,7 @@
       <c r="I354" s="13"/>
       <c r="J354" s="11"/>
       <c r="K354" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
@@ -10570,7 +10612,7 @@
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C415" s="13"/>
       <c r="D415" s="39">
@@ -10594,7 +10636,7 @@
         <v>44652</v>
       </c>
       <c r="B416" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C416" s="13">
         <v>1.25</v>
@@ -10612,7 +10654,7 @@
       <c r="I416" s="9"/>
       <c r="J416" s="11"/>
       <c r="K416" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
@@ -10666,7 +10708,7 @@
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C419" s="13"/>
       <c r="D419" s="39">
@@ -10682,7 +10724,7 @@
       <c r="I419" s="9"/>
       <c r="J419" s="11"/>
       <c r="K419" s="50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
@@ -10690,7 +10732,7 @@
         <v>44713</v>
       </c>
       <c r="B420" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C420" s="13">
         <v>1.25</v>
@@ -10708,7 +10750,7 @@
       <c r="I420" s="9"/>
       <c r="J420" s="11"/>
       <c r="K420" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
@@ -10716,7 +10758,7 @@
         <v>44743</v>
       </c>
       <c r="B421" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C421" s="13">
         <v>1.25</v>
@@ -10734,13 +10776,13 @@
       <c r="I421" s="9"/>
       <c r="J421" s="11"/>
       <c r="K421" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C422" s="13"/>
       <c r="D422" s="39">
@@ -10808,7 +10850,7 @@
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C425" s="13"/>
       <c r="D425" s="39">
@@ -10832,7 +10874,7 @@
         <v>44805</v>
       </c>
       <c r="B426" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C426" s="13">
         <v>1.25</v>
@@ -10850,7 +10892,7 @@
       <c r="I426" s="9"/>
       <c r="J426" s="11"/>
       <c r="K426" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
@@ -10859,7 +10901,7 @@
         <v>44835</v>
       </c>
       <c r="B427" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C427" s="13">
         <v>1.25</v>
@@ -10877,16 +10919,16 @@
       <c r="I427" s="9"/>
       <c r="J427" s="11"/>
       <c r="K427" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
-        <f t="shared" ref="A428:A436" si="22">EDATE(A427,1)</f>
+        <f t="shared" ref="A428:A439" si="22">EDATE(A427,1)</f>
         <v>44866</v>
       </c>
       <c r="B428" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C428" s="13">
         <v>1.25</v>
@@ -10931,13 +10973,13 @@
       <c r="I429" s="9"/>
       <c r="J429" s="11"/>
       <c r="K429" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C430" s="13"/>
       <c r="D430" s="39">
@@ -10953,7 +10995,7 @@
       <c r="I430" s="9"/>
       <c r="J430" s="11"/>
       <c r="K430" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
@@ -10979,11 +11021,15 @@
         <f>EDATE(A429,1)</f>
         <v>44927</v>
       </c>
-      <c r="B432" s="20"/>
+      <c r="B432" s="20" t="s">
+        <v>186</v>
+      </c>
       <c r="C432" s="13">
         <v>1.25</v>
       </c>
-      <c r="D432" s="39"/>
+      <c r="D432" s="39">
+        <v>3</v>
+      </c>
       <c r="E432" s="9"/>
       <c r="F432" s="20"/>
       <c r="G432" s="13">
@@ -10993,18 +11039,24 @@
       <c r="H432" s="39"/>
       <c r="I432" s="9"/>
       <c r="J432" s="11"/>
-      <c r="K432" s="20"/>
+      <c r="K432" s="20" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <f t="shared" si="22"/>
         <v>44958</v>
       </c>
-      <c r="B433" s="20"/>
+      <c r="B433" s="20" t="s">
+        <v>205</v>
+      </c>
       <c r="C433" s="13">
         <v>1.25</v>
       </c>
-      <c r="D433" s="39"/>
+      <c r="D433" s="39">
+        <v>4</v>
+      </c>
       <c r="E433" s="9"/>
       <c r="F433" s="20"/>
       <c r="G433" s="13">
@@ -11014,45 +11066,44 @@
       <c r="H433" s="39"/>
       <c r="I433" s="9"/>
       <c r="J433" s="11"/>
-      <c r="K433" s="20"/>
+      <c r="K433" s="20" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A434" s="40">
-        <f t="shared" si="22"/>
-        <v>44986</v>
-      </c>
+      <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C434" s="13">
-        <v>1.25</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="C434" s="13"/>
       <c r="D434" s="39">
-        <v>2</v>
+        <v>0.23700000000000002</v>
       </c>
       <c r="E434" s="9"/>
       <c r="F434" s="20"/>
-      <c r="G434" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G434" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H434" s="39"/>
       <c r="I434" s="9"/>
       <c r="J434" s="11"/>
-      <c r="K434" s="20" t="s">
-        <v>75</v>
-      </c>
+      <c r="K434" s="20"/>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
-        <f t="shared" si="22"/>
-        <v>45017</v>
-      </c>
-      <c r="B435" s="20"/>
+        <f>EDATE(A433,1)</f>
+        <v>44986</v>
+      </c>
+      <c r="B435" s="20" t="s">
+        <v>74</v>
+      </c>
       <c r="C435" s="13">
         <v>1.25</v>
       </c>
-      <c r="D435" s="39"/>
+      <c r="D435" s="39">
+        <v>2</v>
+      </c>
       <c r="E435" s="9"/>
       <c r="F435" s="20"/>
       <c r="G435" s="13">
@@ -11062,43 +11113,40 @@
       <c r="H435" s="39"/>
       <c r="I435" s="9"/>
       <c r="J435" s="11"/>
-      <c r="K435" s="20"/>
+      <c r="K435" s="20" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A436" s="40">
-        <f t="shared" si="22"/>
-        <v>45047</v>
-      </c>
+      <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C436" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D436" s="39"/>
+        <v>190</v>
+      </c>
+      <c r="C436" s="13"/>
+      <c r="D436" s="39">
+        <v>2</v>
+      </c>
       <c r="E436" s="9"/>
       <c r="F436" s="20"/>
-      <c r="G436" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H436" s="39">
-        <v>3</v>
-      </c>
+      <c r="G436" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H436" s="39"/>
       <c r="I436" s="9"/>
       <c r="J436" s="11"/>
       <c r="K436" s="20" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
-        <v>74</v>
+        <v>204</v>
       </c>
       <c r="C437" s="13"/>
-      <c r="D437" s="20">
-        <v>2</v>
+      <c r="D437" s="39">
+        <v>2.700000000000001E-2</v>
       </c>
       <c r="E437" s="9"/>
       <c r="F437" s="20"/>
@@ -11109,52 +11157,54 @@
       <c r="H437" s="39"/>
       <c r="I437" s="9"/>
       <c r="J437" s="11"/>
-      <c r="K437" s="20" t="s">
-        <v>172</v>
-      </c>
+      <c r="K437" s="20"/>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A438" s="40"/>
-      <c r="B438" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="C438" s="13"/>
-      <c r="D438" s="20"/>
+      <c r="A438" s="40">
+        <f>EDATE(A435,1)</f>
+        <v>45017</v>
+      </c>
+      <c r="B438" s="20"/>
+      <c r="C438" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D438" s="39"/>
       <c r="E438" s="9"/>
       <c r="F438" s="20"/>
-      <c r="G438" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H438" s="39">
-        <v>6</v>
-      </c>
+      <c r="G438" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H438" s="39"/>
       <c r="I438" s="9"/>
       <c r="J438" s="11"/>
-      <c r="K438" s="20" t="s">
-        <v>174</v>
-      </c>
+      <c r="K438" s="20"/>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A439" s="40"/>
+      <c r="A439" s="40">
+        <f t="shared" si="22"/>
+        <v>45047</v>
+      </c>
       <c r="B439" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C439" s="13"/>
-      <c r="D439" s="20">
-        <v>3</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C439" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D439" s="39"/>
       <c r="E439" s="9"/>
       <c r="F439" s="20"/>
-      <c r="G439" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H439" s="39"/>
+      <c r="G439" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H439" s="39">
+        <v>3</v>
+      </c>
       <c r="I439" s="9"/>
       <c r="J439" s="11"/>
       <c r="K439" s="20" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
@@ -11176,16 +11226,16 @@
       <c r="I440" s="9"/>
       <c r="J440" s="11"/>
       <c r="K440" s="20" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="C441" s="13"/>
-      <c r="D441" s="39"/>
+      <c r="D441" s="20"/>
       <c r="E441" s="9"/>
       <c r="F441" s="20"/>
       <c r="G441" s="13" t="str">
@@ -11193,64 +11243,60 @@
         <v/>
       </c>
       <c r="H441" s="39">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I441" s="9"/>
       <c r="J441" s="11"/>
       <c r="K441" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A442" s="40">
-        <v>45078</v>
-      </c>
+      <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C442" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D442" s="39"/>
+        <v>45</v>
+      </c>
+      <c r="C442" s="13"/>
+      <c r="D442" s="20">
+        <v>3</v>
+      </c>
       <c r="E442" s="9"/>
       <c r="F442" s="20"/>
-      <c r="G442" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H442" s="39">
-        <v>2</v>
-      </c>
+      <c r="G442" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H442" s="39"/>
       <c r="I442" s="9"/>
       <c r="J442" s="11"/>
       <c r="K442" s="20" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A443" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B443" s="20"/>
-      <c r="C443" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D443" s="39"/>
+      <c r="A443" s="40"/>
+      <c r="B443" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C443" s="13"/>
+      <c r="D443" s="20">
+        <v>2</v>
+      </c>
       <c r="E443" s="9"/>
       <c r="F443" s="20"/>
-      <c r="G443" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G443" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H443" s="39"/>
       <c r="I443" s="9"/>
       <c r="J443" s="11"/>
-      <c r="K443" s="20"/>
+      <c r="K443" s="20" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A444" s="40">
-        <v>45139</v>
-      </c>
+      <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>54</v>
       </c>
@@ -11268,34 +11314,44 @@
       <c r="I444" s="9"/>
       <c r="J444" s="11"/>
       <c r="K444" s="20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B445" s="20"/>
-      <c r="C445" s="13"/>
+        <v>45078</v>
+      </c>
+      <c r="B445" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C445" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D445" s="39"/>
       <c r="E445" s="9"/>
       <c r="F445" s="20"/>
-      <c r="G445" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H445" s="39"/>
+      <c r="G445" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H445" s="39">
+        <v>2</v>
+      </c>
       <c r="I445" s="9"/>
       <c r="J445" s="11"/>
-      <c r="K445" s="20"/>
+      <c r="K445" s="20" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A446" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B446" s="20"/>
+      <c r="A446" s="40"/>
+      <c r="B446" s="20" t="s">
+        <v>200</v>
+      </c>
       <c r="C446" s="13"/>
-      <c r="D446" s="39"/>
+      <c r="D446" s="39">
+        <v>6</v>
+      </c>
       <c r="E446" s="9"/>
       <c r="F446" s="20"/>
       <c r="G446" s="13" t="str">
@@ -11305,20 +11361,24 @@
       <c r="H446" s="39"/>
       <c r="I446" s="9"/>
       <c r="J446" s="11"/>
-      <c r="K446" s="20"/>
+      <c r="K446" s="20" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
-        <v>45231</v>
+        <v>45108</v>
       </c>
       <c r="B447" s="20"/>
-      <c r="C447" s="13"/>
+      <c r="C447" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D447" s="39"/>
       <c r="E447" s="9"/>
       <c r="F447" s="20"/>
-      <c r="G447" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G447" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H447" s="39"/>
       <c r="I447" s="9"/>
@@ -11327,88 +11387,122 @@
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B448" s="20"/>
-      <c r="C448" s="13"/>
+        <v>45139</v>
+      </c>
+      <c r="B448" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C448" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D448" s="39"/>
       <c r="E448" s="9"/>
       <c r="F448" s="20"/>
-      <c r="G448" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H448" s="39"/>
+      <c r="G448" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H448" s="39">
+        <v>3</v>
+      </c>
       <c r="I448" s="9"/>
       <c r="J448" s="11"/>
-      <c r="K448" s="20"/>
+      <c r="K448" s="20" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B449" s="20"/>
-      <c r="C449" s="13"/>
-      <c r="D449" s="39"/>
+        <v>45170</v>
+      </c>
+      <c r="B449" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="C449" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D449" s="39">
+        <v>21</v>
+      </c>
       <c r="E449" s="9"/>
       <c r="F449" s="20"/>
-      <c r="G449" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G449" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H449" s="39"/>
       <c r="I449" s="9"/>
       <c r="J449" s="11"/>
-      <c r="K449" s="20"/>
+      <c r="K449" s="20" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B450" s="20"/>
-      <c r="C450" s="13"/>
-      <c r="D450" s="39"/>
+        <v>45200</v>
+      </c>
+      <c r="B450" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="C450" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D450" s="39">
+        <v>21</v>
+      </c>
       <c r="E450" s="9"/>
       <c r="F450" s="20"/>
-      <c r="G450" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G450" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H450" s="39"/>
       <c r="I450" s="9"/>
       <c r="J450" s="11"/>
-      <c r="K450" s="20"/>
+      <c r="K450" s="20" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B451" s="20"/>
-      <c r="C451" s="13"/>
-      <c r="D451" s="39"/>
+        <v>45231</v>
+      </c>
+      <c r="B451" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="C451" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D451" s="39">
+        <v>19</v>
+      </c>
       <c r="E451" s="9"/>
       <c r="F451" s="20"/>
-      <c r="G451" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G451" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H451" s="39"/>
       <c r="I451" s="9"/>
       <c r="J451" s="11"/>
-      <c r="K451" s="20"/>
+      <c r="K451" s="20" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
-        <v>45383</v>
+        <v>45261</v>
       </c>
       <c r="B452" s="20"/>
-      <c r="C452" s="13"/>
+      <c r="C452" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D452" s="39"/>
       <c r="E452" s="9"/>
       <c r="F452" s="20"/>
-      <c r="G452" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G452" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H452" s="39"/>
       <c r="I452" s="9"/>
@@ -11416,8 +11510,8 @@
       <c r="K452" s="20"/>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A453" s="40">
-        <v>45413</v>
+      <c r="A453" s="49" t="s">
+        <v>194</v>
       </c>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -11435,7 +11529,7 @@
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
-        <v>45444</v>
+        <v>45292</v>
       </c>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -11453,7 +11547,7 @@
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
-        <v>45474</v>
+        <v>45323</v>
       </c>
       <c r="B455" s="20"/>
       <c r="C455" s="13"/>
@@ -11471,7 +11565,7 @@
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
-        <v>45505</v>
+        <v>45352</v>
       </c>
       <c r="B456" s="20"/>
       <c r="C456" s="13"/>
@@ -11489,7 +11583,7 @@
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
-        <v>45536</v>
+        <v>45383</v>
       </c>
       <c r="B457" s="20"/>
       <c r="C457" s="13"/>
@@ -11507,7 +11601,7 @@
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
-        <v>45566</v>
+        <v>45413</v>
       </c>
       <c r="B458" s="20"/>
       <c r="C458" s="13"/>
@@ -11525,7 +11619,7 @@
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
-        <v>45597</v>
+        <v>45444</v>
       </c>
       <c r="B459" s="20"/>
       <c r="C459" s="13"/>
@@ -11542,7 +11636,9 @@
       <c r="K459" s="20"/>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A460" s="40"/>
+      <c r="A460" s="40">
+        <v>45474</v>
+      </c>
       <c r="B460" s="20"/>
       <c r="C460" s="13"/>
       <c r="D460" s="39"/>
@@ -11558,7 +11654,9 @@
       <c r="K460" s="20"/>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A461" s="40"/>
+      <c r="A461" s="40">
+        <v>45505</v>
+      </c>
       <c r="B461" s="20"/>
       <c r="C461" s="13"/>
       <c r="D461" s="39"/>
@@ -11574,7 +11672,9 @@
       <c r="K461" s="20"/>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A462" s="40"/>
+      <c r="A462" s="40">
+        <v>45536</v>
+      </c>
       <c r="B462" s="20"/>
       <c r="C462" s="13"/>
       <c r="D462" s="39"/>
@@ -11590,7 +11690,9 @@
       <c r="K462" s="20"/>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A463" s="40"/>
+      <c r="A463" s="40">
+        <v>45566</v>
+      </c>
       <c r="B463" s="20"/>
       <c r="C463" s="13"/>
       <c r="D463" s="39"/>
@@ -11606,7 +11708,9 @@
       <c r="K463" s="20"/>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A464" s="40"/>
+      <c r="A464" s="40">
+        <v>45597</v>
+      </c>
       <c r="B464" s="20"/>
       <c r="C464" s="13"/>
       <c r="D464" s="39"/>
@@ -11942,20 +12046,100 @@
       <c r="K484" s="20"/>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A485" s="41"/>
-      <c r="B485" s="15"/>
-      <c r="C485" s="42"/>
-      <c r="D485" s="43"/>
+      <c r="A485" s="40"/>
+      <c r="B485" s="20"/>
+      <c r="C485" s="13"/>
+      <c r="D485" s="39"/>
       <c r="E485" s="9"/>
-      <c r="F485" s="15"/>
-      <c r="G485" s="42" t="str">
+      <c r="F485" s="20"/>
+      <c r="G485" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H485" s="43"/>
+      <c r="H485" s="39"/>
       <c r="I485" s="9"/>
-      <c r="J485" s="12"/>
-      <c r="K485" s="15"/>
+      <c r="J485" s="11"/>
+      <c r="K485" s="20"/>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A486" s="40"/>
+      <c r="B486" s="20"/>
+      <c r="C486" s="13"/>
+      <c r="D486" s="39"/>
+      <c r="E486" s="9"/>
+      <c r="F486" s="20"/>
+      <c r="G486" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H486" s="39"/>
+      <c r="I486" s="9"/>
+      <c r="J486" s="11"/>
+      <c r="K486" s="20"/>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A487" s="40"/>
+      <c r="B487" s="20"/>
+      <c r="C487" s="13"/>
+      <c r="D487" s="39"/>
+      <c r="E487" s="9"/>
+      <c r="F487" s="20"/>
+      <c r="G487" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H487" s="39"/>
+      <c r="I487" s="9"/>
+      <c r="J487" s="11"/>
+      <c r="K487" s="20"/>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A488" s="40"/>
+      <c r="B488" s="20"/>
+      <c r="C488" s="13"/>
+      <c r="D488" s="39"/>
+      <c r="E488" s="9"/>
+      <c r="F488" s="20"/>
+      <c r="G488" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H488" s="39"/>
+      <c r="I488" s="9"/>
+      <c r="J488" s="11"/>
+      <c r="K488" s="20"/>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A489" s="40"/>
+      <c r="B489" s="20"/>
+      <c r="C489" s="13"/>
+      <c r="D489" s="39"/>
+      <c r="E489" s="9"/>
+      <c r="F489" s="20"/>
+      <c r="G489" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H489" s="39"/>
+      <c r="I489" s="9"/>
+      <c r="J489" s="11"/>
+      <c r="K489" s="20"/>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A490" s="41"/>
+      <c r="B490" s="15"/>
+      <c r="C490" s="42"/>
+      <c r="D490" s="43"/>
+      <c r="E490" s="9"/>
+      <c r="F490" s="15"/>
+      <c r="G490" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H490" s="43"/>
+      <c r="I490" s="9"/>
+      <c r="J490" s="12"/>
+      <c r="K490" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -12067,14 +12251,14 @@
         <v>0</v>
       </c>
       <c r="E3" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.11700000000000001</v>
+        <v>0.23700000000000002</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
